--- a/medicine/Hématologie/Thrombocytose/Thrombocytose.xlsx
+++ b/medicine/Hématologie/Thrombocytose/Thrombocytose.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La thrombocytose (ou hyperplaquettose, ou encore thrombocytémie, thrombocythémie) est une anomalie de l'hémogramme caractérisée par une augmentation du nombre de plaquettes circulantes.
 </t>
@@ -511,13 +523,50 @@
           <t>Diagnostic et complications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le diagnostic est essentiellement biologique avec la découverte à l'hémogramme d'un nombre de plaquettes supérieur à 500 000/µl.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le diagnostic est essentiellement biologique avec la découverte à l'hémogramme d'un nombre de plaquettes supérieur à 500 000/µl.
 Cliniquement, on note une splénomégalie inconstante.
 Les complications spécifiques d'une thrombocytose sont les hémorragies et les thromboses veineuses et artérielles.
-Critères diagnostiques de la thrombocytémie essentielle
-Critères diagnostiques de thrombocytémie essentielle, établis par la Polycythemia Vera Study Group en 1997 :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Thrombocytose</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Hématologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Thrombocytose</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Diagnostic et complications</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Critères diagnostiques de la thrombocytémie essentielle</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Critères diagnostiques de thrombocytémie essentielle, établis par la Polycythemia Vera Study Group en 1997 :
 numération des plaquettes supérieure à 600 000/mm³
 hématocrite inférieur à 50 % pour un homme et 45 % pour une femme
 présence de fer médullaire, ferritinémie normale ou VGM normal
@@ -528,31 +577,33 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>Thrombocytose</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Portail:Hématologie/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Thrombocytose</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Étiologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Hyperplaquettose primitive ou essentielle :
 syndrome myélodysplasique,
